--- a/docs/PT3/PT3_30.07.24v_output.xlsx
+++ b/docs/PT3/PT3_30.07.24v_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,434 +505,513 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1730828376.6290278</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730828377.5072057</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730828376.6290278.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730828377.5072057.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>291.37</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>291.42</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.05000000000001137</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1730828382.987986</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1730828383.0842443</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730828382.987986.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730828383.0842443.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>290.58</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>290.59</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.009999999999990905</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1730828390.867233</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1730828391.2948525</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730828390.867233.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730828391.2948525.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>132.53</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>132.52</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.009999999999990905</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1730828399.3374722</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730828399.3931077</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730828399.3374722.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730828399.3931077.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>6797</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>6801</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1730828399.8215988</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1730828400.2582753</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730828399.8215988.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730828400.2582753.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>6796.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>6803</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>6.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1730828401.3125184</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1730828401.449158</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730828401.3125184.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730828401.449158.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6804.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6810</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>5.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1730828402.4739764</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730828403.7158256</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730828402.4739764.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730828403.7158256.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6810.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6800.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-10</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1730828403.9334738</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730828403.9891343</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730828403.9334738.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730828403.9891343.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6801.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6801.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -925,195 +1019,231 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1730828410.1872852</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1730828410.789879</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730828410.1872852.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730828410.789879.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>510.15</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>510.75</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1730828412.3382547</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1730828412.6047306</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730828412.3382547.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730828412.6047306.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>512</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>512.75</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.75</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1730828413.0761497</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1730828414.9348497</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730828413.0761497.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730828414.9348497.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>512.05</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>512.35</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.3000000000000682</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1730828418.2200594</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730828418.4874804</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730828418.2200594.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730828418.4874804.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>1048.8</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>1048.8</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1121,685 +1251,811 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1730828420.0930097</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1730828420.232547</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730828420.0930097.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730828420.232547.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>1045.2</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>1044</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1730828422.24269</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1730828422.4193804</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730828422.24269.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730828422.4193804.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>1046.2</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>1046.4</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1730828423.6772835</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1730828424.047193</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730828423.6772835.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730828424.047193.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>1046.2</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>1046.4</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1730828426.9734833</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730828427.7935252</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730828426.9734833.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730828427.7935252.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>1042</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>1046</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-4</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1730828433.6390655</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730828433.9194982</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730828433.6390655.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730828433.9194982.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>127.5</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>127.32</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.1800000000000068</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1730828435.4739192</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1730828435.894915</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730828435.4739192.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730828435.894915.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>127.64</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>127.56</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.07999999999999829</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1730828436.5410762</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1730828436.9705799</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730828436.5410762.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730828436.9705799.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>127.46</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>127.4</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.05999999999998806</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1730828442.9899921</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730828445.3871498</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730828442.9899921.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730828445.3871498.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>166.48</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>165.9</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.5799999999999841</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1730828446.4044967</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730828446.7089784</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730828446.4044967.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730828446.7089784.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>165.66</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>165.72</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1730828448.1002634</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1730828450.1642637</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730828448.1002634.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730828450.1642637.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>51.74</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>51.62</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.1200000000000045</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1730828454.4625304</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1730828454.7163215</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730828454.4625304.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730828454.7163215.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>51.45</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>51.48</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.02999999999999403</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1730828457.5835264</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1730828457.8831654</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730828457.5835264.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730828457.8831654.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1420.4</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1421</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.5999999999999091</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1730828458.22867</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1730828458.7332623</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730828458.22867.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730828458.7332623.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1420.2</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1419.6</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.6000000000001364</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1730828463.5041728</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1730828464.3839655</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730828463.5041728.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730828464.3839655.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1420.6</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1420.6</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1807,195 +2063,231 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1730828464.6495929</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1730828465.471562</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730828464.6495929.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730828465.471562.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1420</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1419.2</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.7999999999999545</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1730828465.630653</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1730828465.9792113</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730828465.630653.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730828465.9792113.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1419.8</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1419.4</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.3999999999998636</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1730828468.5798209</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1730828468.6754959</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730828468.5798209.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730828468.6754959.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>60.52</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>60.56</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.03999999999999915</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1730828468.7321095</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1730828468.827724</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730828468.7321095.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730828468.827724.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>60.57</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>60.57</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2003,97 +2295,115 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1730828470.714685</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1730828472.891698</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730828470.714685.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730828472.891698.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>60.61</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>60.45</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.1599999999999966</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1730828473.253827</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1730828473.385571</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730828473.253827.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730828473.385571.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>60.5</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>60.5</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2101,97 +2411,115 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1730828476.351652</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1730828476.5595398</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730828476.351652.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730828476.5595398.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>60.43</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>60.37</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1730828476.8172038</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1730828476.8708835</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730828476.8172038.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730828476.8708835.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>60.4</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>60.4</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2199,293 +2527,347 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1730828481.179752</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1730828481.721912</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730828481.179752.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730828481.721912.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>141.36</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>141.4</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.03999999999999204</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1730828484.71155</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1730828485.0131612</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730828484.71155.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730828485.0131612.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>141.04</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>140.78</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1730828490.12726</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1730828490.4425683</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730828490.12726.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730828490.4425683.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>53.97</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>53.93</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1730828491.4460514</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1730828492.5453498</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730828491.4460514.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730828492.5453498.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>53.88</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>53.85</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1730828493.6959717</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1730828494.2152054</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730828493.6959717.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730828494.2152054.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>53.79</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>53.71</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1730828494.810862</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1730828494.908495</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730828494.810862.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730828494.908495.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>53.62</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>53.62</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2493,236 +2875,281 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1730828494.9660742</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1730828495.3535988</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730828494.9660742.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730828495.3535988.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>53.63</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>53.5</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.1300000000000026</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1730828495.4912171</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1730828495.4912171.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1730828495.4912171.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>53.53</v>
       </c>
-      <c r="J44" t="n">
-        <v>53.53</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
+      <c r="L44" t="n">
+        <v>53.51</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.02000000000000313</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1730828500.4272416</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1730828501.2169156</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730828500.4272416.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730828501.2169156.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>374.99</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>374.81</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1730828501.3652704</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1730828501.4482358</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730828501.3652704.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730828501.4482358.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>374.81</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>374.53</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.2800000000000296</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1730828507.07007</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1730828507.6441138</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MXI1730828507.07007.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MXI1730828507.6441138.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>3023.8</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>3023.8</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2730,196 +3157,232 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1730828513.5974581</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1730828513.9918952</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MXI1730828513.5974581.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MXI1730828513.9918952.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>3019.9</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>3020.1</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.1999999999998181</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1730828519.288448</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1730828519.575571</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730828519.288448.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730828519.575571.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>34.51</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>34.485</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.02499999999999858</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1730828522.60324</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1730828524.164077</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730828522.60324.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730828524.164077.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>34.615</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>34.49</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.125</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1730828525.6371255</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1730828525.7259681</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730828525.6371255.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730828525.7259681.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>34.395</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>34.42</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.02499999999999858</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2933,7 +3396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2957,6 +3420,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2965,11 +3443,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2800000000000011</v>
+        <v>0.3000000000000043</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.05000000000000071</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2983,6 +3470,15 @@
       <c r="C3" t="n">
         <v>6</v>
       </c>
+      <c r="D3" t="n">
+        <v>-0.02333333333333224</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2996,6 +3492,15 @@
       <c r="C4" t="n">
         <v>5</v>
       </c>
+      <c r="D4" t="n">
+        <v>-0.3200000000000273</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3009,6 +3514,15 @@
       <c r="C5" t="n">
         <v>5</v>
       </c>
+      <c r="D5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.09000000000000002</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3022,6 +3536,15 @@
       <c r="C6" t="n">
         <v>5</v>
       </c>
+      <c r="D6" t="n">
+        <v>-0.4799999999999727</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3035,6 +3558,15 @@
       <c r="C7" t="n">
         <v>3</v>
       </c>
+      <c r="D7" t="n">
+        <v>-0.06666666666667236</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3048,6 +3580,15 @@
       <c r="C8" t="n">
         <v>3</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.5500000000000304</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3061,6 +3602,15 @@
       <c r="C9" t="n">
         <v>3</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.04166666666666666</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3074,6 +3624,15 @@
       <c r="C10" t="n">
         <v>2</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.2300000000000182</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3087,6 +3646,15 @@
       <c r="C11" t="n">
         <v>2</v>
       </c>
+      <c r="D11" t="n">
+        <v>-0.07499999999999929</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.14</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3100,6 +3668,15 @@
       <c r="C12" t="n">
         <v>2</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.09999999999990905</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3113,6 +3690,15 @@
       <c r="C13" t="n">
         <v>2</v>
       </c>
+      <c r="D13" t="n">
+        <v>-0.3199999999999932</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3126,6 +3712,15 @@
       <c r="C14" t="n">
         <v>2</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.02000000000001023</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3139,6 +3734,15 @@
       <c r="C15" t="n">
         <v>2</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.1499999999999915</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3152,6 +3756,15 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3165,6 +3778,11 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
